--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:15:49+00:00</t>
+    <t>2022-05-19T07:35:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,57 +135,30 @@
     <t>V11NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・１単位量</t>
-  </si>
-  <si>
     <t>V12NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・２単位量</t>
-  </si>
-  <si>
     <t>V13NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・３単位量</t>
-  </si>
-  <si>
     <t>V14NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・４単位量</t>
-  </si>
-  <si>
     <t>V15NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・５単位量</t>
-  </si>
-  <si>
     <t>V16NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・６単位量</t>
-  </si>
-  <si>
     <t>V17NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・７単位量</t>
-  </si>
-  <si>
     <t>V18NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・８単位量</t>
-  </si>
-  <si>
     <t>V19NNNNN</t>
   </si>
   <si>
-    <t>不均等・１回目・９単位量</t>
-  </si>
-  <si>
     <t>V21NNNNN</t>
   </si>
   <si>
@@ -324,73 +297,37 @@
     <t>I1100000</t>
   </si>
   <si>
-    <t>隔日投与</t>
-  </si>
-  <si>
     <t>W1100001</t>
   </si>
   <si>
-    <t>日曜日、月曜日</t>
-  </si>
-  <si>
     <t>W0110000</t>
   </si>
   <si>
-    <t>月曜日、火曜日</t>
-  </si>
-  <si>
     <t>W0101000</t>
   </si>
   <si>
-    <t>月曜日、水曜日</t>
-  </si>
-  <si>
     <t>W0100100</t>
   </si>
   <si>
-    <t>月曜日、木曜日</t>
-  </si>
-  <si>
     <t>W0100010</t>
   </si>
   <si>
-    <t>月曜日、金曜日</t>
-  </si>
-  <si>
     <t>W0100001</t>
   </si>
   <si>
-    <t>月曜日、土曜日</t>
-  </si>
-  <si>
     <t>W0010000</t>
   </si>
   <si>
-    <t>火曜日、水曜日</t>
-  </si>
-  <si>
     <t>W0011000</t>
   </si>
   <si>
-    <t>火曜日、目曜日</t>
-  </si>
-  <si>
     <t>W0000100</t>
   </si>
   <si>
-    <t>火曜日、木曜日</t>
-  </si>
-  <si>
     <t>W0000010</t>
   </si>
   <si>
-    <t>火曜日、金曜日</t>
-  </si>
-  <si>
     <t>W0000001</t>
-  </si>
-  <si>
-    <t>火曜日、土曜日</t>
   </si>
 </sst>
 </file>
@@ -720,9 +657,7 @@
       <c r="B2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>40</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
@@ -730,11 +665,9 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
@@ -742,11 +675,9 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
@@ -754,11 +685,9 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
@@ -766,11 +695,9 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
@@ -778,11 +705,9 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
@@ -790,11 +715,9 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
@@ -802,11 +725,9 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
@@ -814,11 +735,9 @@
         <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
@@ -826,11 +745,9 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
@@ -838,11 +755,9 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
@@ -850,11 +765,9 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
@@ -862,11 +775,9 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
@@ -874,11 +785,9 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
@@ -886,11 +795,9 @@
         <v>38</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
@@ -898,11 +805,9 @@
         <v>38</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
@@ -910,11 +815,9 @@
         <v>38</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
@@ -922,11 +825,9 @@
         <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s" s="2">
         <v>56</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
@@ -934,11 +835,9 @@
         <v>38</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
@@ -946,11 +845,9 @@
         <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
@@ -958,11 +855,9 @@
         <v>38</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
@@ -970,11 +865,9 @@
         <v>38</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
@@ -982,11 +875,9 @@
         <v>38</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
@@ -994,11 +885,9 @@
         <v>38</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
@@ -1006,11 +895,9 @@
         <v>38</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
@@ -1018,11 +905,9 @@
         <v>38</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
@@ -1030,11 +915,9 @@
         <v>38</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
@@ -1042,11 +925,9 @@
         <v>38</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
@@ -1054,11 +935,9 @@
         <v>38</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
@@ -1066,11 +945,9 @@
         <v>38</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
@@ -1078,11 +955,9 @@
         <v>38</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
@@ -1090,11 +965,9 @@
         <v>38</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
@@ -1102,11 +975,9 @@
         <v>38</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
@@ -1114,11 +985,9 @@
         <v>38</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
@@ -1126,11 +995,9 @@
         <v>38</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
@@ -1138,11 +1005,9 @@
         <v>38</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
@@ -1150,11 +1015,9 @@
         <v>38</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
@@ -1162,11 +1025,9 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
@@ -1174,11 +1035,9 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
@@ -1186,11 +1045,9 @@
         <v>38</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
@@ -1198,11 +1055,9 @@
         <v>38</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
@@ -1210,11 +1065,9 @@
         <v>38</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
@@ -1222,11 +1075,9 @@
         <v>38</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
@@ -1234,11 +1085,9 @@
         <v>38</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
@@ -1246,11 +1095,9 @@
         <v>38</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
@@ -1258,11 +1105,9 @@
         <v>38</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
@@ -1270,11 +1115,9 @@
         <v>38</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
@@ -1282,11 +1125,9 @@
         <v>38</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
@@ -1294,11 +1135,9 @@
         <v>38</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
@@ -1306,11 +1145,9 @@
         <v>38</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
@@ -1318,11 +1155,9 @@
         <v>38</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
@@ -1330,11 +1165,9 @@
         <v>38</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
@@ -1342,11 +1175,9 @@
         <v>38</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
@@ -1354,11 +1185,9 @@
         <v>38</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
@@ -1366,11 +1195,9 @@
         <v>38</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
@@ -1378,11 +1205,9 @@
         <v>38</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
@@ -1390,11 +1215,9 @@
         <v>38</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
@@ -1402,11 +1225,9 @@
         <v>38</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
@@ -1414,11 +1235,9 @@
         <v>38</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
@@ -1426,11 +1245,9 @@
         <v>38</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
@@ -1438,11 +1255,9 @@
         <v>38</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
@@ -1450,11 +1265,9 @@
         <v>38</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
@@ -1462,11 +1275,9 @@
         <v>38</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
@@ -1474,11 +1285,9 @@
         <v>38</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
@@ -1486,11 +1295,9 @@
         <v>38</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
@@ -1498,11 +1305,9 @@
         <v>38</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
   </sheetData>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:35:54+00:00</t>
+    <t>2022-05-19T07:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,30 +135,57 @@
     <t>V11NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・１単位量</t>
+  </si>
+  <si>
     <t>V12NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・２単位量</t>
+  </si>
+  <si>
     <t>V13NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・３単位量</t>
+  </si>
+  <si>
     <t>V14NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・４単位量</t>
+  </si>
+  <si>
     <t>V15NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・５単位量</t>
+  </si>
+  <si>
     <t>V16NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・６単位量</t>
+  </si>
+  <si>
     <t>V17NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・７単位量</t>
+  </si>
+  <si>
     <t>V18NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・８単位量</t>
+  </si>
+  <si>
     <t>V19NNNNN</t>
   </si>
   <si>
+    <t>不均等・１回目・９単位量</t>
+  </si>
+  <si>
     <t>V21NNNNN</t>
   </si>
   <si>
@@ -297,37 +324,73 @@
     <t>I1100000</t>
   </si>
   <si>
+    <t>隔日投与</t>
+  </si>
+  <si>
     <t>W1100001</t>
   </si>
   <si>
+    <t>日曜日、月曜日</t>
+  </si>
+  <si>
     <t>W0110000</t>
   </si>
   <si>
+    <t>月曜日、火曜日</t>
+  </si>
+  <si>
     <t>W0101000</t>
   </si>
   <si>
+    <t>月曜日、水曜日</t>
+  </si>
+  <si>
     <t>W0100100</t>
   </si>
   <si>
+    <t>月曜日、木曜日</t>
+  </si>
+  <si>
     <t>W0100010</t>
   </si>
   <si>
+    <t>月曜日、金曜日</t>
+  </si>
+  <si>
     <t>W0100001</t>
   </si>
   <si>
+    <t>月曜日、土曜日</t>
+  </si>
+  <si>
     <t>W0010000</t>
   </si>
   <si>
+    <t>火曜日、水曜日</t>
+  </si>
+  <si>
     <t>W0011000</t>
   </si>
   <si>
+    <t>火曜日、目曜日</t>
+  </si>
+  <si>
     <t>W0000100</t>
   </si>
   <si>
+    <t>火曜日、木曜日</t>
+  </si>
+  <si>
     <t>W0000010</t>
   </si>
   <si>
+    <t>火曜日、金曜日</t>
+  </si>
+  <si>
     <t>W0000001</t>
+  </si>
+  <si>
+    <t>火曜日、土曜日</t>
   </si>
 </sst>
 </file>
@@ -657,7 +720,9 @@
       <c r="B2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
@@ -665,9 +730,11 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
@@ -675,9 +742,11 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
@@ -685,9 +754,11 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
@@ -695,9 +766,11 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
@@ -705,9 +778,11 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
@@ -715,9 +790,11 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
@@ -725,9 +802,11 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
@@ -735,9 +814,11 @@
         <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
@@ -745,9 +826,11 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
@@ -755,9 +838,11 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
@@ -765,9 +850,11 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
@@ -775,9 +862,11 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
@@ -785,9 +874,11 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
@@ -795,9 +886,11 @@
         <v>38</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
@@ -805,9 +898,11 @@
         <v>38</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
@@ -815,9 +910,11 @@
         <v>38</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
@@ -825,9 +922,11 @@
         <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
@@ -835,9 +934,11 @@
         <v>38</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
@@ -845,9 +946,11 @@
         <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
@@ -855,9 +958,11 @@
         <v>38</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
@@ -865,9 +970,11 @@
         <v>38</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
@@ -875,9 +982,11 @@
         <v>38</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
@@ -885,9 +994,11 @@
         <v>38</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
@@ -895,9 +1006,11 @@
         <v>38</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
@@ -905,9 +1018,11 @@
         <v>38</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
@@ -915,9 +1030,11 @@
         <v>38</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
@@ -925,9 +1042,11 @@
         <v>38</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
@@ -935,9 +1054,11 @@
         <v>38</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
@@ -945,9 +1066,11 @@
         <v>38</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
@@ -955,9 +1078,11 @@
         <v>38</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
@@ -965,9 +1090,11 @@
         <v>38</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
@@ -975,9 +1102,11 @@
         <v>38</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
@@ -985,9 +1114,11 @@
         <v>38</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
@@ -995,9 +1126,11 @@
         <v>38</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
@@ -1005,9 +1138,11 @@
         <v>38</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
@@ -1015,9 +1150,11 @@
         <v>38</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
@@ -1025,9 +1162,11 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
@@ -1035,9 +1174,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
@@ -1045,9 +1186,11 @@
         <v>38</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
@@ -1055,9 +1198,11 @@
         <v>38</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
@@ -1065,9 +1210,11 @@
         <v>38</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
@@ -1075,9 +1222,11 @@
         <v>38</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
@@ -1085,9 +1234,11 @@
         <v>38</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
@@ -1095,9 +1246,11 @@
         <v>38</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
@@ -1105,9 +1258,11 @@
         <v>38</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
@@ -1115,9 +1270,11 @@
         <v>38</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
@@ -1125,9 +1282,11 @@
         <v>38</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
@@ -1135,9 +1294,11 @@
         <v>38</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
@@ -1145,9 +1306,11 @@
         <v>38</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
@@ -1155,9 +1318,11 @@
         <v>38</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
@@ -1165,9 +1330,11 @@
         <v>38</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
@@ -1175,9 +1342,11 @@
         <v>38</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
@@ -1185,9 +1354,11 @@
         <v>38</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
@@ -1195,9 +1366,11 @@
         <v>38</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
@@ -1205,9 +1378,11 @@
         <v>38</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
@@ -1215,9 +1390,11 @@
         <v>38</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
@@ -1225,9 +1402,11 @@
         <v>38</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
@@ -1235,9 +1414,11 @@
         <v>38</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
@@ -1245,9 +1426,11 @@
         <v>38</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
@@ -1255,9 +1438,11 @@
         <v>38</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
@@ -1265,9 +1450,11 @@
         <v>38</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
@@ -1275,9 +1462,11 @@
         <v>38</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
@@ -1285,9 +1474,11 @@
         <v>38</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
@@ -1295,9 +1486,11 @@
         <v>38</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
@@ -1305,9 +1498,11 @@
         <v>38</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="D67" s="2"/>
     </row>
   </sheetData>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:59:09+00:00</t>
+    <t>2022-05-19T08:14:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T08:14:30+00:00</t>
+    <t>2022-05-19T08:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T08:29:28+00:00</t>
+    <t>2022-05-19T21:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.3</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T21:25:03+00:00</t>
+    <t>2022-05-19T22:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/ValueSet/jami-ePreOrderUsageAuxCode</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -642,48 +639,46 @@
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -701,807 +696,807 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>36</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="D67" s="2"/>
     </row>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:15:07+00:00</t>
+    <t>2022-05-19T22:22:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:22:45+00:00</t>
+    <t>2022-05-19T22:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:40:57+00:00</t>
+    <t>2022-05-20T01:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T01:59:29+00:00</t>
+    <t>2022-05-20T02:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T02:53:22+00:00</t>
+    <t>2022-05-20T03:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T03:10:08+00:00</t>
+    <t>2022-05-20T22:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T22:14:29+00:00</t>
+    <t>2022-05-21T02:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:00:04+00:00</t>
+    <t>2022-05-21T02:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:55:26+00:00</t>
+    <t>2022-05-21T04:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T04:45:59+00:00</t>
+    <t>2022-05-26T10:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:02:22+00:00</t>
+    <t>2022-05-26T10:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:25:08+00:00</t>
+    <t>2022-06-18T09:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T09:15:45+00:00</t>
+    <t>2022-06-18T22:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T22:14:23+00:00</t>
+    <t>2022-06-19T00:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T00:56:38+00:00</t>
+    <t>2022-06-25T22:06:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:06:20+00:00</t>
+    <t>2022-06-26T00:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T00:19:47+00:00</t>
+    <t>2022-06-26T03:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T03:25:27+00:00</t>
+    <t>2022-06-26T08:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T08:16:20+00:00</t>
+    <t>2022-06-26T13:51:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T13:51:41+00:00</t>
+    <t>2022-06-26T21:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T21:50:55+00:00</t>
+    <t>2022-06-27T01:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:01:02+00:00</t>
+    <t>2022-06-27T01:36:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:36:25+00:00</t>
+    <t>2022-06-27T02:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T02:56:07+00:00</t>
+    <t>2022-06-27T06:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T06:28:37+00:00</t>
+    <t>2022-06-27T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T09:20:01+00:00</t>
+    <t>2022-06-27T10:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T10:19:40+00:00</t>
+    <t>2022-06-27T12:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T12:59:10+00:00</t>
+    <t>2022-06-27T22:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T22:33:31+00:00</t>
+    <t>2022-06-28T04:43:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T04:43:28+00:00</t>
+    <t>2022-06-28T06:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreOrderUsageAuxCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T06:25:36+00:00</t>
+    <t>2022-06-29T08:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
